--- a/backend/flask/server/scripts/statements.xlsx
+++ b/backend/flask/server/scripts/statements.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="גיליון1" sheetId="1" r:id="rId4"/>
+    <sheet r:id="rId1" sheetId="1" name="גיליון1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="173">
   <si>
     <t>נושא</t>
   </si>
@@ -40,6 +43,9 @@
     <t>The swimmer Mark Spitz who represented the United States in the swimming branch, won 7 gold medals</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>The swimmer Mark Spitz who represented the United States in the swimming branch, won 7 gold medals and also set 7 world records</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>A Chechen terrorist organization murdered 11 athletes and staff members from Finland at the Olympics</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>A Palestinian terrorist organization, murdering 11 athletes and staff members from Israel</t>
   </si>
   <si>
@@ -161,106 +170,122 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">מתקפת </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>טרור פלסטיני</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> נרחבת של </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>חמאס</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> ו</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">הג'יהאד האסלאמי </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>שהחלה בי</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ום שבת</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>7 באוקטובר</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2023</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, - 1,144 נרצחו ונהרגו, רובם אזרחים ישראלים וזרים ובהם תינוקות, ילדים, נשים וקשישים. מתוכם: 366 אנשי ביטחון.</t>
     </r>
@@ -345,90 +370,104 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>ב-</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>17 במרץ</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1992</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>מכונית תופת</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> נהוגה בידי מחבל מתאבד התפוצצה ליד שער בניין </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>שגרירות ישראל</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> ב</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>בואנוס איירס</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> וגרמה להריסתה. בפיגוע נהרגו 29 בני אדם מתוכם 4 ישראלים, עובדי משרד החוץ, ו-4 נשים יהודיות מארגנטינה.</t>
     </r>
@@ -444,106 +483,122 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>הפיגועים בסרי לנקה הם סדרת פיצוצים שאירעו ב-</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>21 באפריל</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>2019</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, במהלך חג ה</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>פסחא</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, בערים </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>קולומבו</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>בטיקלואה</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">,  ושני פרוורים של קולומבו. הפיצוצים התרחשו במספר </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>כנסיות</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF202122"/>
-        <sz val="14.0"/>
+        <sz val="14"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> ובתי מלון, ונהרגו בהם כ-269 בני אדם וכ-500 נפצעו.</t>
     </r>
@@ -822,91 +877,102 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
-      <color theme="1"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="19.0"/>
-      <color theme="1"/>
+      <sz val="19"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="14.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF202122"/>
       <name val="Sans-serif"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF202122"/>
       <name val="Sans-serif"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="14.0"/>
-      <color rgb="FF1F1F1F"/>
+      <sz val="14"/>
+      <color rgb="FF1f1f1f"/>
       <name val="&quot;Simpler Pro H&quot;"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="14.0"/>
-      <color rgb="FF1F1F1F"/>
+      <sz val="14"/>
+      <color rgb="FF1f1f1f"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF202122"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Rubik"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="14.0"/>
-      <color rgb="FF0F0F0F"/>
+      <sz val="14"/>
+      <color rgb="FF0f0f0f"/>
       <name val="Söhne"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="14.0"/>
-      <color theme="1"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Söhne"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -914,35 +980,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4DD0E1"/>
-        <bgColor rgb="FF4DD0E1"/>
+        <fgColor rgb="FF4dd0e1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE0F7FA"/>
-        <bgColor rgb="FFE0F7FA"/>
+        <fgColor rgb="FFe0f7fa"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
+        <fgColor rgb="FF46bdc6"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
-    <border/>
+  <borders count="6">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -956,6 +1024,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -967,6 +1036,10 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -975,6 +1048,28 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -983,140 +1078,142 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="9" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="11" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="12" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="13" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="13" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="14" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="14" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -1143,22 +1240,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1170,1173 +1327,1198 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.75"/>
-    <col customWidth="1" min="2" max="2" width="64.75"/>
-    <col customWidth="1" min="3" max="3" width="19.25"/>
-    <col customWidth="1" min="4" max="4" width="74.38"/>
+    <col min="1" max="1" style="31" width="27.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="32" width="64.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="31" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="33" width="74.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="38.25">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="54.75">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="22.5">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7"/>
-      <c r="B6" s="4" t="s">
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="38.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="6" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="54.75">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="4" t="s">
+      <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="38.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="38.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="38.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="6" t="s">
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="7"/>
-      <c r="B12" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="54.75">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="38.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="7"/>
-      <c r="B14" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="38.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="23.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="7"/>
-      <c r="B16" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="38.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="C15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="70.5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="7"/>
-      <c r="B18" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="102.75">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
+      <c r="C17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7"/>
-      <c r="B20" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="22.5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="C18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="22.5">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="12"/>
-      <c r="B21" s="6" t="s">
+      <c r="C19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="22.5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="C20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="14" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="38.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="72">
+      <c r="A22" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="B22" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="D22" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="7"/>
-      <c r="B24" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="87">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="C23" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="7"/>
-      <c r="B26" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="C25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D27" s="16" t="s">
+      <c r="C26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="7"/>
-      <c r="B28" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="17" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D29" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="7"/>
-      <c r="B30" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="19" t="s">
+      <c r="C29" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="19" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D31" s="20" t="s">
+      <c r="C30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="7"/>
-      <c r="B32" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="19" t="s">
+      <c r="C31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D33" s="20" t="s">
+      <c r="C32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="7"/>
-      <c r="B34" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="19" t="s">
+      <c r="C33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D35" s="21"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="7"/>
-      <c r="B36" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="15" t="s">
+      <c r="C34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="14"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D37" s="13" t="s">
+      <c r="C36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="7"/>
-      <c r="B38" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="15" t="s">
+      <c r="C37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D39" s="20" t="s">
+      <c r="C38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="7"/>
-      <c r="B40" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40" s="19" t="s">
+      <c r="C39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="12"/>
-      <c r="B41" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="C40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="3" t="s">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="6" t="s">
+      <c r="C42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="7"/>
-      <c r="B44" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="C44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="7"/>
-      <c r="B46" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="C45" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="C46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="7"/>
-      <c r="B48" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="4" t="s">
+      <c r="C47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D49" s="6" t="s">
+      <c r="C48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="7"/>
-      <c r="B50" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+      <c r="A49" s="6"/>
+      <c r="B49" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="4" t="s">
+      <c r="C49" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="C50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="7"/>
-      <c r="B52" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="4" t="s">
+      <c r="C51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="5"/>
-      <c r="B53" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="C52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="7"/>
-      <c r="B54" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+      <c r="A53" s="6"/>
+      <c r="B53" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="C53" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="5"/>
-      <c r="B55" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="8" t="b">
-        <v>1</v>
+      <c r="C54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+      <c r="A55" s="6"/>
+      <c r="B55" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="7"/>
-      <c r="B56" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>11</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="5"/>
-      <c r="B57" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C57" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D57" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="7"/>
-      <c r="B58" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+      <c r="A57" s="6"/>
+      <c r="B57" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D58" s="4" t="s">
+      <c r="C57" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+      <c r="A58" s="9"/>
+      <c r="B58" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D59" s="6" t="s">
+      <c r="C58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="7"/>
-      <c r="B60" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="4" t="s">
+      <c r="C59" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="5"/>
-      <c r="B61" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D61" s="6" t="s">
+      <c r="C60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="7"/>
-      <c r="B62" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="4" t="s">
+      <c r="C61" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="5"/>
-      <c r="B63" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+      <c r="A62" s="9"/>
+      <c r="B62" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D63" s="6" t="s">
+      <c r="C62" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="7"/>
-      <c r="B64" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="C63" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="5"/>
-      <c r="B65" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+      <c r="A64" s="9"/>
+      <c r="B64" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D65" s="6" t="s">
+      <c r="C64" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="7"/>
-      <c r="B66" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+      <c r="A65" s="6"/>
+      <c r="B65" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="4" t="s">
+      <c r="C65" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="5"/>
-      <c r="B67" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+      <c r="A66" s="9"/>
+      <c r="B66" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D67" s="24" t="s">
+      <c r="C66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="7"/>
-      <c r="B68" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+      <c r="A67" s="6"/>
+      <c r="B67" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68" s="25" t="s">
+      <c r="C67" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="5"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="26"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="7"/>
-      <c r="B70" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+      <c r="A68" s="9"/>
+      <c r="B68" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C68" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="27" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="22"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+      <c r="A70" s="9"/>
+      <c r="B70" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="5"/>
-      <c r="B71" s="6" t="s">
+      <c r="C70" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D71" s="6" t="s">
+      <c r="D70" s="24" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="7"/>
-      <c r="B72" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="C71" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="5"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="7"/>
-      <c r="B74" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+      <c r="A72" s="9"/>
+      <c r="B72" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="4" t="s">
+      <c r="C72" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="5"/>
-      <c r="B75" s="28" t="s">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+      <c r="A74" s="9"/>
+      <c r="B74" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C75" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D75" s="6" t="s">
+      <c r="C74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="7"/>
-      <c r="B76" s="29" t="s">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="4" t="s">
+      <c r="C75" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="5"/>
-      <c r="B77" s="30" t="s">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+      <c r="A76" s="9"/>
+      <c r="B76" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D77" s="6" t="s">
+      <c r="C76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="7"/>
-      <c r="B78" s="31" t="s">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+      <c r="A77" s="6"/>
+      <c r="B77" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="4" t="s">
+      <c r="C77" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="5"/>
-      <c r="B79" s="30" t="s">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+      <c r="A78" s="9"/>
+      <c r="B78" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="C79" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D79" s="32" t="s">
+      <c r="C78" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="7"/>
-      <c r="B80" s="31" t="s">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="33" t="s">
+      <c r="C79" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="29" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="5"/>
-      <c r="B81" s="16" t="s">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+      <c r="A80" s="9"/>
+      <c r="B80" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="C81" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D81" s="16" t="s">
+      <c r="C80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="30" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="7"/>
-      <c r="B82" s="17" t="s">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="5"/>
-      <c r="B83" s="6" t="s">
+      <c r="C81" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C83" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D83" s="32" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="7"/>
-      <c r="B84" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+      <c r="A82" s="9"/>
+      <c r="B82" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="33" t="s">
+      <c r="C82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="12"/>
-      <c r="B85" s="6" t="s">
+      <c r="C83" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+      <c r="A84" s="9"/>
+      <c r="B84" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D85" s="32" t="s">
+      <c r="C84" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="30" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+      <c r="A85" s="13"/>
+      <c r="B85" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="29" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="A2:A21"/>
     <mergeCell ref="A22:A41"/>
-    <mergeCell ref="A2:A21"/>
     <mergeCell ref="A42:A85"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="D22"/>
-    <hyperlink r:id="rId2" ref="D36"/>
-    <hyperlink r:id="rId3" ref="D38"/>
-  </hyperlinks>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>